--- a/ToDo_CRM.xlsx
+++ b/ToDo_CRM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="134">
   <si>
     <t xml:space="preserve">Taches</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">Vérifier que spring.sql.init.mode=always est activé</t>
   </si>
   <si>
+    <t xml:space="preserve">Initialisation  GIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configuration de l'intégration Google</t>
   </si>
   <si>
@@ -173,6 +176,252 @@
   </si>
   <si>
     <t xml:space="preserve">ResetController() (fonction pour appeler reset())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import </t>
+  </si>
+  <si>
+    <t xml:space="preserve">metier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generer donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">affichage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification gitignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de application.properties dans gitignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinitialisation donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de branche dev-resetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de lien "reset" dans le sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de page- bouton "Reset All Data"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: appel de fonction resetDatabase()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: fonction appel de la fonction resetDatabase()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: appel du lien du controller a partir du bouton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull request dev-resetData vers dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import fichier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de branche dev-importTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de lien "import" dans le sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation page- bouton Import Employe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de fichier csv test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: Creation fonction importEmploye(csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: creation de fonction index() redirection vers la page html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: appel de importEmploye(csv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: appel du lien du controller a partir du bouton importEmploye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull request dev-importTest vers dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generation donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de branche dev-generateData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export fichier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation branche dev-exportData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout lien "export" dans le sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation page- liste deroulante entite &amp; bouton Export </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: Creation fonction exportCsv(table)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: appel der exportCsv(table)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: appel du lien du controller a partir du bouton exportCsv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull request dev-exportData vers dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation table Budget (id, amount, id_customer, date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity: Creation entite Budget </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: fonction save()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: recuperation donnees pour affichage insertion budget (GET)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: appel de fonction save() *POST*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de lien "add budget" dans le sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de page Insertion de budget (choix customer, amount, date) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: appel du lien du controller a partir du bouton insert Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste budget </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: fonction findAll()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: appel de fonction findAll() *GET*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de lien "All budgets" dans le sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de page All budgets (affichage de liste budget) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion depenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation table Expenses (id, id_costumer, amount, ticket_id, lead_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout depenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entier: Creation entite Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: fonction save() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: appel save() dans le controller create-ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de input amount dans le formulaire create-ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: appel save() dans le controller create-lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de input amount dans le formulaire create-lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: appel de create-ticket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: appel de create-lead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depassement taux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de table Rate (id, rate, inserted_at)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entite: Creation entite Rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repository: Creation RateRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service (Rate): fonction getLast()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service (Budget): fonction getByCustomerId(customer_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service (Budget): fonction SumByCustomerId(customer_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service (Expense): fonction getByCustomerId(customer_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service (Expense): fonction SumByCustomerId(customer_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: creation de isRateExceeded(customer_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: verification de isRateExceeded dans create-ticket -&gt; alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: verification de isRateExceeded dans create-lead -&gt; alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depassement budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: creation de isBudgetExceeded(customer_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller: creation de fonction confirmExpense()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de page de confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: verification de isBudgetExceeded dans create-ticket -&gt; alert &amp; confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamisation: verification de isBudgetExceeded dans create-lead -&gt; alert &amp; confirm</t>
   </si>
 </sst>
 </file>
@@ -264,25 +513,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -477,645 +738,3212 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="85:85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="62.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="F14" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="0" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F54" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F98" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7"/>
+      <c r="B101" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>50</v>
-      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
